--- a/Contabilita_2024.xlsx
+++ b/Contabilita_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
   <si>
     <t>Entrate</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Pizza</t>
   </si>
   <si>
-    <t>Bolletta Gas</t>
-  </si>
-  <si>
     <t>Spesa carne</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Capitale mensile investito in Trade Republic</t>
+  </si>
+  <si>
+    <t>Bolletta gas</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -988,13 +988,13 @@
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="K1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="17"/>
@@ -1014,14 +1014,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>1.21</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9">
         <v>25500</v>
@@ -1042,13 +1042,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>27</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="6">
         <v>320.43</v>
@@ -1067,16 +1067,16 @@
         <v>45293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
         <v>197.92</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6">
         <v>20.98</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="25">
         <f>SUM(I2:I6)</f>
@@ -1173,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6">
         <v>4.9000000000000004</v>
@@ -1189,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6">
         <v>40.01</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="12">
         <f>SUM(E:E)</f>
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6">
         <v>63.63</v>
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6">
         <v>8.5</v>
@@ -1234,17 +1234,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="14"/>
       <c r="M11" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="39"/>
       <c r="O11" s="13"/>
       <c r="P11" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="39"/>
       <c r="S11" s="40" t="s">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="T11" s="40"/>
       <c r="V11" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W11" s="40"/>
     </row>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6">
         <v>16.399999999999999</v>
@@ -1315,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6">
         <v>1807.25</v>
@@ -1324,7 +1324,7 @@
         <v>45292</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c r="U13" s="8"/>
@@ -1341,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
         <v>5.49</v>
@@ -1350,7 +1350,7 @@
         <v>45292</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c r="U14" s="8"/>
@@ -1367,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6">
         <v>9.4499999999999993</v>
@@ -1376,7 +1376,7 @@
         <v>45292</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c r="U15" s="8"/>
@@ -1393,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>45292</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="12">
         <v>413.13</v>
@@ -1420,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="6">
         <v>6</v>
@@ -1429,7 +1429,7 @@
         <v>45298</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="12">
         <v>372.5</v>
@@ -1448,10 +1448,10 @@
         <v>45303</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6">
         <v>128.62</v>
@@ -1460,7 +1460,7 @@
         <v>45299</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6">
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="6">
         <v>4.34</v>
@@ -1492,7 +1492,7 @@
         <v>45299</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1506,10 +1506,10 @@
         <v>45304</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="6">
         <v>14</v>
@@ -1518,7 +1518,7 @@
         <v>45300</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="6">
         <v>0.01</v>
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="6">
         <v>80.33</v>
@@ -1548,7 +1548,7 @@
         <v>45301</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1566,10 +1566,10 @@
         <v>45305</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="6">
         <v>10</v>
@@ -1578,7 +1578,7 @@
         <v>45304</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="12">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -1610,7 +1610,7 @@
         <v>45303</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="12">
         <v>8000</v>
@@ -1633,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6">
         <v>10.9</v>
@@ -1642,7 +1642,7 @@
         <v>45306</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="12">
         <v>17000</v>
@@ -1657,10 +1657,10 @@
         <v>45306</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="6">
         <v>9.99</v>
@@ -1669,7 +1669,7 @@
         <v>45306</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P25" s="12">
         <v>17000</v>
@@ -1684,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6">
         <v>4.03</v>
@@ -1693,7 +1693,7 @@
         <v>45309</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="12">
         <v>500</v>
@@ -1712,10 +1712,10 @@
         <v>45307</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6">
         <v>60.5</v>
@@ -1724,7 +1724,7 @@
         <v>45309</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="12">
@@ -1742,10 +1742,10 @@
         <v>45309</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="6">
         <v>22.57</v>
@@ -1754,7 +1754,7 @@
         <v>45310</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="12">
         <v>400</v>
@@ -1771,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="6">
         <v>17.899999999999999</v>
@@ -1780,7 +1780,7 @@
         <v>45315</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P29" s="12">
         <v>400</v>
@@ -1791,10 +1791,10 @@
         <v>45311</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6">
         <v>15.9</v>
@@ -1805,16 +1805,16 @@
         <v>45311</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6">
         <v>2.8</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="12">
         <f>SUM(J13:J29) - SUM(K13:K29)</f>
@@ -1830,13 +1830,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6">
         <v>2.2799999999999998</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="12">
         <f>SUM(M14:M30) - SUM(N14:N30)</f>
@@ -1849,16 +1849,16 @@
         <v>45312</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="6">
         <v>37</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="12">
         <f>SUM(P15:P31) - SUM(Q15:Q31)</f>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="6">
         <v>7</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="6">
         <v>55.81</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="12">
         <f>SUM(V17:V33) - SUM(W17:W33)</f>
@@ -1915,10 +1915,10 @@
         <v>45313</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="6">
         <v>12</v>
@@ -1930,10 +1930,10 @@
         <v>45313</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="6">
         <v>4.3499999999999996</v>
@@ -1946,10 +1946,10 @@
         <v>45313</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="6">
         <v>2.96</v>
@@ -1961,16 +1961,16 @@
         <v>45314</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="6">
         <v>15</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="12">
         <f>SUM(S:S)-SUM(T:T)</f>
@@ -1986,13 +1986,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="6">
         <v>15.28</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="12">
         <f>I39</f>
@@ -2005,16 +2005,16 @@
         <v>45315</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="6">
         <v>3</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="12">
         <f>I42+I43</f>
@@ -2030,13 +2030,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="6">
         <v>35.69</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="12">
         <v>344.92</v>
@@ -2048,16 +2048,16 @@
         <v>45317</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="6">
         <v>103.96</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="12">
         <v>112.13</v>
@@ -2069,10 +2069,10 @@
         <v>45317</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6">
         <v>19</v>
@@ -2085,16 +2085,16 @@
         <v>45317</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6">
         <v>21</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I45" s="38">
         <f>I41-I40</f>
@@ -2111,10 +2111,10 @@
         <v>45318</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="6">
         <v>59</v>
@@ -2129,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="6">
         <v>58.52</v>
@@ -2144,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="6">
         <v>5</v>
@@ -2156,16 +2156,16 @@
         <v>45322</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="6">
         <v>63.14</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" s="12">
         <f>SUMIF(B2:B51, "Diesel golf", E2:E51)</f>
@@ -2178,16 +2178,16 @@
         <v>45322</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="6">
         <v>33</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50" s="12">
         <f>SUMIF(B2:B51, "Spesa", E2:E51)</f>
@@ -2206,16 +2206,16 @@
         <v>45322</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" s="6">
         <v>8.35</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" s="12">
         <f>SUMIF(B2:B51, "Spesa carne", E2:E51)</f>
@@ -2236,7 +2236,13 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="12">
+        <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
+        <v>128.62</v>
+      </c>
       <c r="M52" s="12"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2248,7 +2254,13 @@
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="12">
+        <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
+        <v>0</v>
+      </c>
       <c r="M53" s="12"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2427,8 +2439,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2476,16 +2488,16 @@
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="K1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="15"/>
@@ -2501,17 +2513,17 @@
         <v>45323</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>22.98</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9">
         <v>50</v>
@@ -2533,16 +2545,16 @@
         <v>45323</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="6">
         <v>342.43</v>
@@ -2564,16 +2576,16 @@
         <v>45324</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6">
         <v>32.1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="6">
         <v>25972.29</v>
@@ -2598,13 +2610,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>12.64</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="12">
         <v>228.43</v>
@@ -2622,16 +2634,16 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6">
         <v>17.850000000000001</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="12">
         <v>460</v>
@@ -2648,13 +2660,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>88.79</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="6">
         <f>SUM(I2:I6)</f>
@@ -2681,13 +2693,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6">
         <v>12.76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="12">
@@ -2707,13 +2719,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>3.89</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="12">
         <f>SUM(E:E)</f>
@@ -2729,10 +2741,10 @@
         <v>45329</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6">
         <v>2701.3</v>
@@ -2740,17 +2752,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="14"/>
       <c r="M10" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="39"/>
       <c r="O10" s="13"/>
       <c r="P10" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="S10" s="40" t="s">
@@ -2758,7 +2770,7 @@
       </c>
       <c r="T10" s="40"/>
       <c r="V10" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="40"/>
     </row>
@@ -2767,10 +2779,10 @@
         <v>45331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6">
         <v>27.84</v>
@@ -2822,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>2008.35</v>
@@ -2831,7 +2843,7 @@
         <v>45324</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="12">
         <v>50</v>
@@ -2848,10 +2860,10 @@
         <v>45331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>4.6500000000000004</v>
@@ -2860,7 +2872,7 @@
         <v>45326</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="12"/>
@@ -2873,10 +2885,10 @@
         <v>45333</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
         <v>2.88</v>
@@ -2885,7 +2897,7 @@
         <v>45329</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="12">
         <v>2700</v>
@@ -2902,10 +2914,10 @@
         <v>45334</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>17.899999999999999</v>
@@ -2914,7 +2926,7 @@
         <v>45331</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="12">
         <v>2000</v>
@@ -2931,10 +2943,10 @@
         <v>45335</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6">
         <v>27.84</v>
@@ -2943,7 +2955,7 @@
         <v>45334</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="12"/>
@@ -2956,10 +2968,10 @@
         <v>45335</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="6">
         <v>75.8</v>
@@ -2968,7 +2980,7 @@
         <v>45334</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="12">
         <v>200</v>
@@ -2982,10 +2994,10 @@
         <v>45336</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
         <v>21.2</v>
@@ -2994,7 +3006,7 @@
         <v>45337</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="12">
         <v>400</v>
@@ -3012,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>17.489999999999998</v>
@@ -3021,7 +3033,7 @@
         <v>45345</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="12">
         <v>250</v>
@@ -3036,10 +3048,10 @@
         <v>45337</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6">
         <v>10.45</v>
@@ -3048,7 +3060,7 @@
         <v>45348</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="12">
         <v>3000</v>
@@ -3067,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>10.45</v>
@@ -3076,7 +3088,7 @@
         <v>45349</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="12">
         <v>5000</v>
@@ -3094,10 +3106,10 @@
         <v>45337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
         <v>3.14</v>
@@ -3106,7 +3118,7 @@
         <v>45349</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="12">
         <v>600</v>
@@ -3124,10 +3136,10 @@
         <v>45341</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6">
         <v>95.55</v>
@@ -3136,7 +3148,7 @@
         <v>45351</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="12">
         <v>176</v>
@@ -3154,10 +3166,10 @@
         <v>45341</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6">
         <v>48.5</v>
@@ -3177,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
         <v>2.5499999999999998</v>
@@ -3192,16 +3204,16 @@
         <v>45342</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6">
         <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="12">
         <f>SUM(S:S)-SUM(T:T)</f>
@@ -3218,13 +3230,13 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="6">
         <v>3.66</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" s="12">
         <f>I26 + Gennaio!I40</f>
@@ -3238,16 +3250,16 @@
         <v>45343</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="12">
         <f>I29+I30</f>
@@ -3260,16 +3272,16 @@
         <v>45344</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="9">
         <v>16.5</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="12">
         <v>1888.37</v>
@@ -3284,13 +3296,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="9">
         <v>24.37</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="12">
         <v>285.58999999999997</v>
@@ -3302,10 +3314,10 @@
         <v>45345</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6">
         <v>23.5</v>
@@ -3321,13 +3333,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="6">
         <v>3.29</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="38">
         <f>I28-I27</f>
@@ -3344,10 +3356,10 @@
         <v>45345</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="6">
         <v>5.76</v>
@@ -3363,13 +3375,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="6">
         <v>13.94</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="12">
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
@@ -3382,16 +3394,16 @@
         <v>45348</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="6">
         <v>22</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="12">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa",E:E)</f>
@@ -3404,16 +3416,16 @@
         <v>45348</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="6">
         <v>31.5</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="12">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
@@ -3426,15 +3438,21 @@
         <v>45348</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="6">
         <v>12.9</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="H37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="12">
+        <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
+        <v>0</v>
+      </c>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3442,15 +3460,21 @@
         <v>45348</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="6">
         <v>6</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="H38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="12">
+        <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
+        <v>75.8</v>
+      </c>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3458,10 +3482,10 @@
         <v>45348</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -3474,10 +3498,10 @@
         <v>45348</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="6">
         <v>10.86</v>
@@ -3490,10 +3514,10 @@
         <v>45348</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="6">
         <v>75</v>
@@ -3506,10 +3530,10 @@
         <v>45348</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="6">
         <v>3008</v>
@@ -3522,10 +3546,10 @@
         <v>45349</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="6">
         <v>5009.5</v>
@@ -3541,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6">
         <v>81.98</v>
@@ -3616,7 +3640,7 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -3664,16 +3688,16 @@
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="K1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="15"/>
@@ -3689,17 +3713,17 @@
         <v>45352</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="6">
         <v>8.2899999999999991</v>
       </c>
       <c r="E2" s="6"/>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9">
         <f>Febbraio!J2</f>
@@ -3720,16 +3744,16 @@
         <v>45352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="9">
         <f>Febbraio!J3</f>
@@ -3750,16 +3774,16 @@
         <v>45352</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="6">
         <v>22.98</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="9">
         <f>Febbraio!J4</f>
@@ -3780,16 +3804,16 @@
         <v>45355</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6">
         <v>54.46</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9">
         <f>Febbraio!J5</f>
@@ -3806,16 +3830,16 @@
         <v>45355</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6">
         <v>3.6</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="9">
         <f>Febbraio!J6</f>
@@ -3828,16 +3852,16 @@
         <v>45355</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>26.25</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="9">
         <f>Febbraio!J7</f>
@@ -3861,10 +3885,10 @@
         <v>45355</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6">
         <v>28.5</v>
@@ -3881,16 +3905,16 @@
         <v>45355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>5.5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="12">
         <f>SUM(E:E)</f>
@@ -3902,10 +3926,10 @@
         <v>45355</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>2.77</v>
@@ -3913,17 +3937,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="27"/>
       <c r="M10" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="39"/>
       <c r="O10" s="13"/>
       <c r="P10" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="S10" s="40" t="s">
@@ -3931,7 +3955,7 @@
       </c>
       <c r="T10" s="40"/>
       <c r="V10" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="40"/>
     </row>
@@ -3940,10 +3964,10 @@
         <v>45355</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>18.45</v>
@@ -3992,10 +4016,10 @@
         <v>45355</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6">
         <v>4.95</v>
@@ -4004,7 +4028,7 @@
         <v>45356</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="12">
         <v>150</v>
@@ -4021,10 +4045,10 @@
         <v>45356</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="6">
         <v>232.11</v>
@@ -4033,7 +4057,7 @@
         <v>45356</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="12">
         <v>300</v>
@@ -4053,7 +4077,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6">
         <v>3.96</v>
@@ -4062,7 +4086,7 @@
         <v>45357</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="12">
         <v>200</v>
@@ -4082,7 +4106,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>19.88</v>
@@ -4091,7 +4115,7 @@
         <v>45359</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="12">
         <v>1800</v>
@@ -4111,7 +4135,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6">
         <v>8.01</v>
@@ -4120,7 +4144,7 @@
         <v>45362</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="12">
         <v>220</v>
@@ -4137,7 +4161,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="6">
         <v>1958.81</v>
@@ -4146,7 +4170,7 @@
         <v>45362</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="12">
         <v>300</v>
@@ -4161,10 +4185,10 @@
         <v>45362</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
         <v>21.5</v>
@@ -4173,7 +4197,7 @@
         <v>45363</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="12">
         <v>290</v>
@@ -4188,10 +4212,10 @@
         <v>45362</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
@@ -4200,7 +4224,7 @@
         <v>45365</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="12">
         <v>200</v>
@@ -4219,7 +4243,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6">
         <v>2.66</v>
@@ -4228,7 +4252,7 @@
         <v>45369</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="12">
         <v>200</v>
@@ -4249,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>3.64</v>
@@ -4266,10 +4290,10 @@
         <v>45363</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
         <v>16</v>
@@ -4286,10 +4310,10 @@
         <v>45364</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6">
         <v>7</v>
@@ -4306,10 +4330,10 @@
         <v>45365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6">
         <v>247.71</v>
@@ -4324,16 +4348,16 @@
         <v>45365</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
         <v>100</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25" s="12">
         <f>SUM(S:S)-SUM(T:T)</f>
@@ -4347,16 +4371,16 @@
         <v>45368</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6">
         <v>1.34</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="12">
         <f>I25 + Febbraio!I27</f>
@@ -4370,16 +4394,16 @@
         <v>45369</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="6">
         <v>0.99</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="12">
         <f>I28+I29</f>
@@ -4392,16 +4416,16 @@
         <v>45369</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="6">
         <v>2.9</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="12">
         <v>3840.84</v>
@@ -4413,16 +4437,16 @@
         <v>45369</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="12">
         <v>54.61</v>
@@ -4437,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6">
         <v>25.36</v>
@@ -4453,13 +4477,13 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6">
         <v>5.12</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="38">
         <f>I27-I26</f>
@@ -4479,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="6">
         <v>16.239999999999998</v>
@@ -4495,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="6">
         <v>23.79</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="12">
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
@@ -4514,17 +4538,17 @@
         <v>45371</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6">
         <v>4.9000000000000004</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="12">
         <f>SUMIF(B:B, "Spesa",E:E)</f>
@@ -4537,16 +4561,16 @@
         <v>45372</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="9">
         <v>21.62</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="12">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
@@ -4562,13 +4586,13 @@
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="9">
         <v>12.82</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="12">
         <f>SUMIF(B:B, "Ristoranti",E:E)</f>
@@ -4581,16 +4605,16 @@
         <v>45373</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="6">
         <v>35</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="12">
         <f>SUMIF(B:B, "Bar",E:E)</f>
@@ -4606,16 +4630,28 @@
         <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="6">
         <v>3.2</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="H38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="12">
+        <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
+        <v>247.71</v>
+      </c>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I39" s="30"/>
+      <c r="H39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="12">
+        <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
+        <v>0</v>
+      </c>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">

--- a/Contabilita_2024.xlsx
+++ b/Contabilita_2024.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://customgroupspa-my.sharepoint.com/personal/s_lazzaro_custom_it/Documents/Desktop/Finance/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_EEEEEFFFB5D9C40133FBBA4D2BAEA63DE3CF37EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644352E4-507B-4C2F-828D-25BF27C0D97E}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gennaio" sheetId="1" r:id="rId1"/>
     <sheet name="Febbraio" sheetId="2" r:id="rId2"/>
     <sheet name="Marzo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -381,11 +400,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -488,10 +507,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -502,22 +521,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,34 +536,31 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,19 +572,10 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -586,10 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -601,17 +596,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -646,14 +644,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -691,7 +692,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -763,7 +764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:W63"/>
   <sheetViews>
@@ -944,33 +945,33 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="39" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="12"/>
-    <col min="19" max="19" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="34.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="9"/>
+    <col min="16" max="16" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="9"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -986,27 +987,27 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="12"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45293</v>
       </c>
@@ -1016,25 +1017,27 @@
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>1.21</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>25500</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>50</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45293</v>
       </c>
@@ -1047,7 +1050,7 @@
       <c r="E3" s="6">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="6">
@@ -1058,11 +1061,11 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="19"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45293</v>
       </c>
@@ -1075,7 +1078,7 @@
       <c r="E4" s="6">
         <v>197.92</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="6">
@@ -1086,11 +1089,11 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="20"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45293</v>
       </c>
@@ -1103,17 +1106,17 @@
       <c r="E5" s="6">
         <v>20.98</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <v>228.43</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45293</v>
       </c>
@@ -1126,17 +1129,17 @@
       <c r="E6" s="6">
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45293</v>
       </c>
@@ -1149,23 +1152,23 @@
       <c r="E7" s="6">
         <v>200</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <f>SUM(I2:I6)</f>
         <v>25820.43</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="21">
         <f>SUM(J2:J6)</f>
         <v>27053.15</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="20">
         <f>(J7-I7)/I7</f>
         <v>4.7742039927297926E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45295</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45296</v>
       </c>
@@ -1197,12 +1200,12 @@
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <f>SUM(E:E)</f>
         <v>1565.71</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45296</v>
       </c>
@@ -1215,10 +1218,10 @@
       <c r="E10" s="6">
         <v>63.63</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45297</v>
       </c>
@@ -1233,30 +1236,30 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="39"/>
-      <c r="S11" s="40" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="S11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="40"/>
-      <c r="V11" s="40" t="s">
+      <c r="T11" s="32"/>
+      <c r="V11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="40"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="W11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45298</v>
       </c>
@@ -1275,39 +1278,39 @@
       <c r="I12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="W12" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45301</v>
       </c>
@@ -1320,20 +1323,19 @@
       <c r="D13" s="6">
         <v>1807.25</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>45292</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="12">
+      <c r="O13" s="1"/>
+      <c r="V13" s="9">
         <v>35.92</v>
       </c>
-      <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45301</v>
       </c>
@@ -1346,20 +1348,19 @@
       <c r="E14" s="6">
         <v>5.49</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>45292</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="12">
+      <c r="O14" s="1"/>
+      <c r="V14" s="9">
         <v>63.74</v>
       </c>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45302</v>
       </c>
@@ -1372,20 +1373,19 @@
       <c r="E15" s="6">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>45292</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="12">
+      <c r="O15" s="1"/>
+      <c r="V15" s="9">
         <v>30.54</v>
       </c>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45302</v>
       </c>
@@ -1398,13 +1398,13 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>45292</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <v>413.13</v>
       </c>
       <c r="N16" s="6">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45303</v>
       </c>
@@ -1425,25 +1425,25 @@
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>45298</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <v>372.5</v>
       </c>
       <c r="K17" s="6">
         <v>110</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="N17" s="12">
+      <c r="N17" s="9">
         <v>372.5</v>
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45303</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="K18" s="6">
         <v>200</v>
       </c>
-      <c r="M18" s="20"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1475,7 +1475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45304</v>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="S19" s="6">
         <v>200</v>
       </c>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45304</v>
       </c>
@@ -1524,14 +1524,14 @@
         <v>0.01</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="T20" s="12">
+      <c r="T20" s="9">
         <v>20</v>
       </c>
-      <c r="U20" s="12"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45305</v>
       </c>
@@ -1552,16 +1552,16 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="S21" s="12">
+      <c r="S21" s="9">
         <v>100</v>
       </c>
-      <c r="U21" s="12"/>
+      <c r="U21" s="9"/>
       <c r="V21" s="6">
         <v>30</v>
       </c>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45305</v>
       </c>
@@ -1581,19 +1581,19 @@
         <v>35</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="12">
+      <c r="K22" s="9">
         <v>600</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="9">
         <v>20</v>
       </c>
-      <c r="U22" s="12"/>
+      <c r="U22" s="9"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6">
         <v>0.77</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45306</v>
       </c>
@@ -1612,20 +1612,20 @@
       <c r="I23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="9">
         <v>8000</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="9">
         <v>600</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="9">
         <v>50</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="9"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45306</v>
       </c>
@@ -1644,15 +1644,15 @@
       <c r="I24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <v>17000</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="9">
         <v>8000</v>
       </c>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45306</v>
       </c>
@@ -1671,12 +1671,12 @@
       <c r="I25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="9">
         <v>17000</v>
       </c>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45307</v>
       </c>
@@ -1695,26 +1695,26 @@
       <c r="I26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="9">
         <v>500</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="9">
         <v>50</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="N26" s="12">
+      <c r="N26" s="9">
         <v>500</v>
       </c>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45307</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6">
@@ -1727,7 +1727,7 @@
         <v>41</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="12">
+      <c r="K27" s="9">
         <v>600</v>
       </c>
       <c r="M27" s="6">
@@ -1737,7 +1737,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45309</v>
       </c>
@@ -1756,14 +1756,14 @@
       <c r="I28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="9">
         <v>400</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45310</v>
       </c>
@@ -1782,11 +1782,11 @@
       <c r="I29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45311</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45311</v>
       </c>
@@ -1813,16 +1813,16 @@
       <c r="E31" s="6">
         <v>2.8</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="12">
+      <c r="I31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="9">
         <f>SUM(J13:J29) - SUM(K13:K29)</f>
         <v>-25674.36</v>
       </c>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>45311</v>
       </c>
@@ -1835,16 +1835,16 @@
       <c r="E32" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="9">
         <f>SUM(M14:M30) - SUM(N14:N30)</f>
         <v>-1235.6300000000001</v>
       </c>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>45312</v>
       </c>
@@ -1857,16 +1857,16 @@
       <c r="E33" s="6">
         <v>37</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="12">
+      <c r="I33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="9">
         <f>SUM(P15:P31) - SUM(Q15:Q31)</f>
         <v>26600</v>
       </c>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45312</v>
       </c>
@@ -1879,16 +1879,16 @@
       <c r="E34" s="6">
         <v>7</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="9">
         <f>SUM(S16:S32) - SUM(T16:T32)</f>
         <v>460</v>
       </c>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45312</v>
       </c>
@@ -1901,16 +1901,16 @@
       <c r="E35" s="6">
         <v>55.81</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="9">
         <f>SUM(V17:V33) - SUM(W17:W33)</f>
         <v>29.23</v>
       </c>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45313</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>45313</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="E37" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="22"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>45313</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>45314</v>
       </c>
@@ -1969,16 +1969,16 @@
       <c r="E39" s="6">
         <v>15</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="9">
         <f>SUM(S:S)-SUM(T:T)</f>
         <v>460</v>
       </c>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>45315</v>
       </c>
@@ -1991,16 +1991,16 @@
       <c r="E40" s="6">
         <v>15.28</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <f>I39</f>
         <v>460</v>
       </c>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>45315</v>
       </c>
@@ -2013,16 +2013,16 @@
       <c r="E41" s="6">
         <v>3</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <f>I42+I43</f>
         <v>457.05</v>
       </c>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>45315</v>
       </c>
@@ -2035,15 +2035,15 @@
       <c r="E42" s="6">
         <v>35.69</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="9">
         <v>344.92</v>
       </c>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>45317</v>
       </c>
@@ -2056,15 +2056,15 @@
       <c r="E43" s="6">
         <v>103.96</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="9">
         <v>112.13</v>
       </c>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45317</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="E44" s="6">
         <v>19</v>
       </c>
-      <c r="H44" s="30"/>
+      <c r="H44" s="23"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45317</v>
       </c>
@@ -2093,20 +2093,20 @@
       <c r="E45" s="6">
         <v>21</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="30">
         <f>I41-I40</f>
         <v>-2.9499999999999886</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="26">
         <f>(I41-I40)/I40</f>
         <v>-6.4130434782608452E-3</v>
       </c>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45318</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45321</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45321</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45322</v>
       </c>
@@ -2167,13 +2167,13 @@
       <c r="H49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="9">
         <f>SUMIF(B2:B51, "Diesel golf", E2:E51)</f>
         <v>234.67000000000002</v>
       </c>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>45322</v>
       </c>
@@ -2189,11 +2189,11 @@
       <c r="H50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="9">
         <f>SUMIF(B2:B51, "Spesa", E2:E51)</f>
         <v>83.509999999999991</v>
       </c>
-      <c r="M50" s="12"/>
+      <c r="M50" s="9"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -2217,11 +2217,11 @@
       <c r="H51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="9">
         <f>SUMIF(B2:B51, "Spesa carne", E2:E51)</f>
         <v>14</v>
       </c>
-      <c r="M51" s="12"/>
+      <c r="M51" s="9"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -2229,21 +2229,21 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="9">
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>128.62</v>
       </c>
-      <c r="M52" s="12"/>
+      <c r="M52" s="9"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -2251,17 +2251,17 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="9">
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="12"/>
+      <c r="M53" s="9"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -2269,11 +2269,11 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="16"/>
-      <c r="M54" s="12"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="13"/>
+      <c r="M54" s="9"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -2281,11 +2281,11 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="16"/>
-      <c r="M55" s="12"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="13"/>
+      <c r="M55" s="9"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -2293,15 +2293,15 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="16"/>
-      <c r="M56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="13"/>
+      <c r="M56" s="9"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -2309,15 +2309,15 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="16"/>
-      <c r="M57" s="12"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="13"/>
+      <c r="M57" s="9"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -2325,15 +2325,15 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="16"/>
-      <c r="M58" s="12"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="13"/>
+      <c r="M58" s="9"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -2341,15 +2341,15 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="16"/>
-      <c r="M59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="13"/>
+      <c r="M59" s="9"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -2357,15 +2357,15 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="16"/>
-      <c r="M60" s="12"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="13"/>
+      <c r="M60" s="9"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -2373,15 +2373,15 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="16"/>
-      <c r="M61" s="12"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="13"/>
+      <c r="M61" s="9"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -2389,18 +2389,18 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2435,42 +2435,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H37" sqref="H37:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="12"/>
-    <col min="19" max="19" width="11.5703125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="43.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="9"/>
+    <col min="16" max="16" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="9"/>
+    <col min="19" max="19" width="11.5546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2486,29 +2486,29 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="14"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45323</v>
       </c>
@@ -2518,29 +2518,30 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>22.98</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>50</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="25">
         <v>50</v>
       </c>
-      <c r="L2" s="9">
+      <c r="K2" s="1"/>
+      <c r="L2" s="6">
         <f>I2 + SUM(M:M) - SUM(N:N)</f>
         <v>50</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45323</v>
       </c>
@@ -2553,25 +2554,25 @@
       <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="6">
         <v>342.43</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="25">
         <v>209.71</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="37">
+      <c r="L3" s="29">
         <f>I3 + SUM(J12:J23) - SUM(K:K)</f>
         <v>8192.7781868100392</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45324</v>
       </c>
@@ -2584,25 +2585,25 @@
       <c r="D4" s="6">
         <v>32.1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="6">
         <v>25972.29</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="25">
         <v>15000.4</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="37">
+      <c r="L4" s="29">
         <f>I4 + SUM(P:P) - SUM(Q12:Q23)</f>
         <v>16446.29</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45324</v>
       </c>
@@ -2615,21 +2616,21 @@
       <c r="E5" s="6">
         <v>12.64</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>228.43</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="25">
         <v>193.43</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <f>I5 + SUM(V:V) - SUM(W:W)</f>
         <v>193.43</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45324</v>
       </c>
@@ -2642,17 +2643,17 @@
       <c r="E6" s="6">
         <v>17.850000000000001</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>460</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="25">
         <v>2180.06</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45327</v>
       </c>
@@ -2665,7 +2666,7 @@
       <c r="E7" s="6">
         <v>88.79</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="6">
@@ -2676,16 +2677,16 @@
         <f>SUM(J2:J6)</f>
         <v>17633.600000000002</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="27">
         <f>(J7-I7)/I7</f>
         <v>-0.34818681003875701</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <f>J7+J8-I7</f>
         <v>1281.75</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45327</v>
       </c>
@@ -2702,16 +2703,16 @@
         <v>89</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f>E10+J20+J21</f>
         <v>10701.3</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="26">
         <f>(J7+J8-I7)/I7</f>
         <v>4.7378955870203653E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45329</v>
       </c>
@@ -2727,16 +2728,16 @@
       <c r="H9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <f>SUM(E:E)</f>
         <v>11570.369999999999</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <f>I9-J8</f>
         <v>869.06999999999971</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45329</v>
       </c>
@@ -2751,30 +2752,30 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="39" t="s">
+      <c r="J10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="39"/>
-      <c r="S10" s="40" t="s">
+      <c r="N10" s="31"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="S10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="V10" s="40" t="s">
+      <c r="T10" s="32"/>
+      <c r="V10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="40"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="W10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45331</v>
       </c>
@@ -2790,43 +2791,43 @@
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="W11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45331</v>
       </c>
@@ -2842,20 +2843,19 @@
       <c r="H12" s="5">
         <v>45324</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="9">
         <v>50</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="9">
         <v>50</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45331</v>
       </c>
@@ -2871,16 +2871,15 @@
       <c r="H13" s="5">
         <v>45326</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12">
+      <c r="V13" s="9"/>
+      <c r="W13" s="9">
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45333</v>
       </c>
@@ -2896,20 +2895,19 @@
       <c r="H14" s="5">
         <v>45329</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <v>2700</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="9">
         <v>2700</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45334</v>
       </c>
@@ -2925,20 +2923,19 @@
       <c r="H15" s="5">
         <v>45331</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <v>2000</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="9">
         <v>2000</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45335</v>
       </c>
@@ -2954,16 +2951,15 @@
       <c r="H16" s="5">
         <v>45334</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12">
+      <c r="V16" s="9"/>
+      <c r="W16" s="9">
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45335</v>
       </c>
@@ -2979,17 +2975,17 @@
       <c r="H17" s="5">
         <v>45334</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="9">
         <v>200</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45336</v>
       </c>
@@ -3005,18 +3001,18 @@
       <c r="H18" s="5">
         <v>45337</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="9">
         <v>400</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="9">
         <v>400</v>
       </c>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45336</v>
       </c>
@@ -3032,18 +3028,18 @@
       <c r="H19" s="5">
         <v>45345</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <v>250</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="9">
         <v>250</v>
       </c>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45337</v>
       </c>
@@ -3056,22 +3052,22 @@
       <c r="E20" s="6">
         <v>10.45</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>45348</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="9">
         <v>3000</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="9">
         <v>3000</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45337</v>
       </c>
@@ -3084,24 +3080,24 @@
       <c r="E21" s="6">
         <v>10.45</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>45349</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="9">
         <v>5000</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="9">
         <v>5000</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="12"/>
+      <c r="U21" s="9"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45337</v>
       </c>
@@ -3114,24 +3110,24 @@
       <c r="E22" s="6">
         <v>3.14</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>45349</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="9">
         <v>600</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="9">
         <v>600</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="12"/>
+      <c r="U22" s="9"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45341</v>
       </c>
@@ -3144,24 +3140,24 @@
       <c r="E23" s="6">
         <v>95.55</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>45351</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="9">
         <v>176</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="9">
         <v>176</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="12"/>
+      <c r="U23" s="9"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45341</v>
       </c>
@@ -3174,14 +3170,13 @@
       <c r="E24" s="6">
         <v>48.5</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="23"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="12"/>
+      <c r="U24" s="9"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45341</v>
       </c>
@@ -3194,12 +3189,11 @@
       <c r="E25" s="6">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="23"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45342</v>
       </c>
@@ -3212,17 +3206,17 @@
       <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <f>SUM(S:S)-SUM(T:T)</f>
         <v>1676</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45342</v>
       </c>
@@ -3235,81 +3229,81 @@
       <c r="E27" s="6">
         <v>3.66</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="9">
         <f>I26 + Gennaio!I40</f>
         <v>2136</v>
       </c>
       <c r="T27" s="1"/>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45343</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>10</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <f>I29+I30</f>
         <v>2173.96</v>
       </c>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45344</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>16.5</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>1888.37</v>
       </c>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45344</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>24.37</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="9">
         <v>285.58999999999997</v>
       </c>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45345</v>
       </c>
@@ -3322,10 +3316,10 @@
       <c r="E31" s="6">
         <v>23.5</v>
       </c>
-      <c r="H31" s="30"/>
+      <c r="H31" s="23"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>45345</v>
       </c>
@@ -3338,20 +3332,20 @@
       <c r="E32" s="6">
         <v>3.29</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="30">
         <f>I28-I27</f>
         <v>37.960000000000036</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="26">
         <f>(I28-I27)/I27</f>
         <v>1.7771535580524363E-2</v>
       </c>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>45345</v>
       </c>
@@ -3364,10 +3358,10 @@
       <c r="E33" s="6">
         <v>5.76</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="23"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45345</v>
       </c>
@@ -3383,13 +3377,13 @@
       <c r="H34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
         <v>170.77</v>
       </c>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45348</v>
       </c>
@@ -3405,13 +3399,13 @@
       <c r="H35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa",E:E)</f>
         <v>105.04</v>
       </c>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45348</v>
       </c>
@@ -3427,13 +3421,13 @@
       <c r="H36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>39.049999999999997</v>
       </c>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>45348</v>
       </c>
@@ -3449,13 +3443,13 @@
       <c r="H37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="9">
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>0</v>
       </c>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>45348</v>
       </c>
@@ -3471,13 +3465,13 @@
       <c r="H38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>75.8</v>
       </c>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>45348</v>
       </c>
@@ -3490,10 +3484,10 @@
       <c r="E39" s="6">
         <v>3</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="23"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>45348</v>
       </c>
@@ -3506,10 +3500,10 @@
       <c r="E40" s="6">
         <v>10.86</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="23"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>45348</v>
       </c>
@@ -3522,14 +3516,14 @@
       <c r="E41" s="6">
         <v>75</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="23"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>45348</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3538,10 +3532,10 @@
       <c r="E42" s="6">
         <v>3008</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="23"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>45349</v>
       </c>
@@ -3554,10 +3548,10 @@
       <c r="E43" s="6">
         <v>5009.5</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="23"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45351</v>
       </c>
@@ -3570,56 +3564,55 @@
       <c r="E44" s="6">
         <v>81.98</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="23"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I45" s="30"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I45" s="23"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I46" s="30"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I46" s="23"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I47" s="30"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I47" s="23"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I48" s="30"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I48" s="23"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H49" s="5"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-    </row>
-    <row r="50" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="30"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="23"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="23"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="8:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H51" s="5"/>
-      <c r="I51" s="29"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3635,42 +3628,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="40.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="12"/>
-    <col min="19" max="19" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="40.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="9"/>
+    <col min="16" max="16" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="9"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3686,29 +3679,29 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-    </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="14"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45352</v>
       </c>
@@ -3721,25 +3714,26 @@
       <c r="D2" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <f>Febbraio!J2</f>
         <v>50</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="L2" s="9">
+      <c r="J2" s="25"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="6">
         <f>I2 + SUM(M:M) - SUM(N:N)</f>
         <v>50</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45352</v>
       </c>
@@ -3749,27 +3743,27 @@
       <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="33">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <f>Febbraio!J3</f>
         <v>209.71</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="37">
+      <c r="L3" s="29">
         <f>I3 + SUM(J12:J22) - SUM(K:K)</f>
         <v>-1439.29</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45352</v>
       </c>
@@ -3779,27 +3773,27 @@
       <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="33">
         <v>22.98</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <f>Febbraio!J4</f>
         <v>15000.4</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="37">
+      <c r="L4" s="29">
         <f>I4 + SUM(P:P) - SUM(Q12:Q22)</f>
         <v>14940.400000000001</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45355</v>
       </c>
@@ -3812,20 +3806,20 @@
       <c r="D5" s="6">
         <v>54.46</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <f>Febbraio!J5</f>
         <v>193.43</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="L5" s="12">
+      <c r="J5" s="25"/>
+      <c r="L5" s="9">
         <f>I5 + SUM(V:V) - SUM(W:W)</f>
         <v>193.43</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45355</v>
       </c>
@@ -3838,16 +3832,16 @@
       <c r="E6" s="6">
         <v>3.6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <f>Febbraio!J6</f>
         <v>2180.06</v>
       </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45355</v>
       </c>
@@ -3860,10 +3854,10 @@
       <c r="E7" s="6">
         <v>26.25</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <f>Febbraio!J7</f>
         <v>17633.600000000002</v>
       </c>
@@ -3871,16 +3865,16 @@
         <f>SUM(J2:J6)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="27">
         <f>(J7-I7)/I7</f>
         <v>-1</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <f>J7+J8-I7</f>
         <v>-17633.600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45355</v>
       </c>
@@ -3895,12 +3889,12 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="L8" s="34">
+      <c r="L8" s="26">
         <f>(J7+J8-I7)/I7</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45355</v>
       </c>
@@ -3916,12 +3910,12 @@
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <f>SUM(E:E)</f>
-        <v>1103.8699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+        <v>1136.8499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45355</v>
       </c>
@@ -3936,30 +3930,30 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="39" t="s">
+      <c r="J10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="39"/>
-      <c r="S10" s="40" t="s">
+      <c r="N10" s="31"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="S10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="V10" s="40" t="s">
+      <c r="T10" s="32"/>
+      <c r="V10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="40"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="W10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45355</v>
       </c>
@@ -3975,43 +3969,43 @@
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="27" t="s">
+      <c r="V11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45355</v>
       </c>
@@ -4027,20 +4021,19 @@
       <c r="H12" s="5">
         <v>45356</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <v>150</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="9">
         <v>150</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45356</v>
       </c>
@@ -4056,20 +4049,19 @@
       <c r="H13" s="5">
         <v>45356</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="9">
         <v>300</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="9">
         <v>300</v>
       </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45356</v>
       </c>
@@ -4085,20 +4077,19 @@
       <c r="H14" s="5">
         <v>45357</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="9">
         <v>200</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="9">
         <v>200</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45356</v>
       </c>
@@ -4114,20 +4105,19 @@
       <c r="H15" s="5">
         <v>45359</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <v>1800</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="9">
         <v>1800</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45359</v>
       </c>
@@ -4143,17 +4133,17 @@
       <c r="H16" s="5">
         <v>45362</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="9">
         <v>220</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="9">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45359</v>
       </c>
@@ -4169,18 +4159,18 @@
       <c r="H17" s="5">
         <v>45362</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="9">
         <v>300</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="9">
         <v>300</v>
       </c>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45362</v>
       </c>
@@ -4196,18 +4186,18 @@
       <c r="H18" s="5">
         <v>45363</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="9">
         <v>290</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="9">
         <v>290</v>
       </c>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45362</v>
       </c>
@@ -4220,22 +4210,22 @@
       <c r="E19" s="6">
         <v>200</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>45365</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="9">
         <v>200</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="9">
         <v>200</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45362</v>
       </c>
@@ -4248,24 +4238,24 @@
       <c r="E20" s="6">
         <v>2.66</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>45369</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="9">
         <v>200</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="9">
         <v>200</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="12"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45363</v>
       </c>
@@ -4278,14 +4268,13 @@
       <c r="E21" s="6">
         <v>3.64</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="23"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="12"/>
+      <c r="U21" s="9"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45363</v>
       </c>
@@ -4298,14 +4287,13 @@
       <c r="E22" s="6">
         <v>16</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="23"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="12"/>
+      <c r="U22" s="9"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45364</v>
       </c>
@@ -4318,14 +4306,13 @@
       <c r="E23" s="6">
         <v>7</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="23"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="12"/>
+      <c r="U23" s="9"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45365</v>
       </c>
@@ -4338,12 +4325,11 @@
       <c r="E24" s="6">
         <v>247.71</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="23"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45365</v>
       </c>
@@ -4356,17 +4342,17 @@
       <c r="E25" s="6">
         <v>100</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <f>SUM(S:S)-SUM(T:T)</f>
         <v>1710</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45368</v>
       </c>
@@ -4379,17 +4365,17 @@
       <c r="E26" s="6">
         <v>1.34</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <f>I25 + Febbraio!I27</f>
         <v>3846</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45369</v>
       </c>
@@ -4402,16 +4388,16 @@
       <c r="E27" s="6">
         <v>0.99</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="9">
         <f>I28+I29</f>
         <v>3895.4500000000003</v>
       </c>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45369</v>
       </c>
@@ -4424,15 +4410,15 @@
       <c r="E28" s="6">
         <v>2.9</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>3840.84</v>
       </c>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45369</v>
       </c>
@@ -4445,15 +4431,15 @@
       <c r="E29" s="6">
         <v>3</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>54.61</v>
       </c>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45370</v>
       </c>
@@ -4466,10 +4452,10 @@
       <c r="E30" s="6">
         <v>25.36</v>
       </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="23"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45370</v>
       </c>
@@ -4482,20 +4468,20 @@
       <c r="E31" s="6">
         <v>5.12</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="30">
         <f>I27-I26</f>
         <v>49.450000000000273</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="26">
         <f>(I27-I26)/I26</f>
         <v>1.2857514300572094E-2</v>
       </c>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>45370</v>
       </c>
@@ -4508,10 +4494,10 @@
       <c r="E32" s="6">
         <v>16.239999999999998</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="23"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>45370</v>
       </c>
@@ -4527,17 +4513,17 @@
       <c r="H33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
         <v>0</v>
       </c>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>45371</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4546,61 +4532,60 @@
       <c r="D34" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E34" s="9"/>
       <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="9">
         <f>SUMIF(B:B, "Spesa",E:E)</f>
         <v>124.67999999999999</v>
       </c>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45372</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>21.62</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>0</v>
       </c>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>45372</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>12.82</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="9">
         <f>SUMIF(B:B, "Ristoranti",E:E)</f>
         <v>63.5</v>
       </c>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>45373</v>
       </c>
@@ -4616,13 +4601,13 @@
       <c r="H37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="9">
         <f>SUMIF(B:B, "Bar",E:E)</f>
         <v>31.4</v>
       </c>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>45373</v>
       </c>
@@ -4638,62 +4623,61 @@
       <c r="H38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>247.71</v>
       </c>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="9">
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>0</v>
       </c>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I40" s="30"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I40" s="23"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I41" s="30"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I41" s="23"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I42" s="30"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I42" s="23"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I43" s="30"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I43" s="23"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I44" s="30"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I44" s="23"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I45" s="30"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I45" s="23"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I46" s="30"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I46" s="23"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I47" s="30"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I47" s="23"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="I48" s="30"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I48" s="23"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="23"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4705,21 +4689,21 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I50" s="29"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>

--- a/Contabilita_2024.xlsx
+++ b/Contabilita_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://customgroupspa-my.sharepoint.com/personal/s_lazzaro_custom_it/Documents/Desktop/Finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.lazzaro\OneDrive - CUSTOM SPA\Desktop\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EEEEEFFFB5D9C40133FBBA4D2BAEA63DE3CF37EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644352E4-507B-4C2F-828D-25BF27C0D97E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC4D85-850E-4258-B04B-49572BDB1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gennaio" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="120">
   <si>
     <t>Entrate</t>
   </si>
@@ -608,7 +608,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,6 +649,2399 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Percentuale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> spese / totale</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Febbraio!$H$34:$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Spesa totale diesel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spesa totale "spesa"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spesa totale carne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bolletta gas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bolletta luce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Febbraio!$J$34:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19649740527230267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12086483252212139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4933089394410125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7219671602977916E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BCB-473D-9604-1AB2CFB02354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6457171916010499"/>
+          <c:y val="0.2364683581219014"/>
+          <c:w val="0.33761614173228344"/>
+          <c:h val="0.5248869932925051"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Percentuale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> spese / totale</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Marzo!$H$33:$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Spesa totale diesel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spesa totale "spesa"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spesa totale carne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spesa totale ristoranti</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spesa totale bar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bolletta gas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bolletta luce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Marzo!$J$33:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7983928455706046E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11318935908236666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1438662432765209E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9486099410278011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20065938694835073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B02-43D7-BC8B-85929420EF5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63748053368328961"/>
+          <c:y val="0.20000947798191893"/>
+          <c:w val="0.34585279965004373"/>
+          <c:h val="0.63947142023913672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339C2956-4B5D-98C9-AC3D-8D6FE0378D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5112C5D7-9DC3-1920-9160-90A776EF336B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2439,8 +4832,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,6 +5774,10 @@
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
         <v>170.77</v>
       </c>
+      <c r="J34" s="33">
+        <f>I34/J9</f>
+        <v>0.19649740527230267</v>
+      </c>
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3403,6 +5800,10 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa",E:E)</f>
         <v>105.04</v>
       </c>
+      <c r="J35" s="33">
+        <f>I35/J9</f>
+        <v>0.12086483252212139</v>
+      </c>
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3425,6 +5826,10 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>39.049999999999997</v>
       </c>
+      <c r="J36" s="33">
+        <f>I36/J9</f>
+        <v>4.4933089394410125E-2</v>
+      </c>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3447,6 +5852,10 @@
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>0</v>
       </c>
+      <c r="J37" s="33">
+        <f>I37/J9</f>
+        <v>0</v>
+      </c>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3469,6 +5878,10 @@
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>75.8</v>
       </c>
+      <c r="J38" s="33">
+        <f>I38/J9</f>
+        <v>8.7219671602977916E-2</v>
+      </c>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3485,6 +5898,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="23"/>
+      <c r="J39" s="33"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3501,6 +5915,7 @@
         <v>10.86</v>
       </c>
       <c r="I40" s="23"/>
+      <c r="J40" s="33"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3624,6 +6039,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3632,8 +6048,8 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J33:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3743,7 +6159,7 @@
       <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="6">
         <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -3773,7 +6189,7 @@
       <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="6">
         <v>22.98</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -3912,7 +6328,7 @@
       </c>
       <c r="I9" s="9">
         <f>SUM(E:E)</f>
-        <v>1136.8499999999999</v>
+        <v>1234.48</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.3">
@@ -4515,7 +6931,11 @@
       </c>
       <c r="I33" s="9">
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
-        <v>0</v>
+        <v>71.58</v>
+      </c>
+      <c r="J33" s="33">
+        <f>I33/I9</f>
+        <v>5.7983928455706046E-2</v>
       </c>
       <c r="T33" s="1"/>
     </row>
@@ -4537,7 +6957,11 @@
       </c>
       <c r="I34" s="9">
         <f>SUMIF(B:B, "Spesa",E:E)</f>
-        <v>124.67999999999999</v>
+        <v>139.72999999999999</v>
+      </c>
+      <c r="J34" s="33">
+        <f>I34/I9</f>
+        <v>0.11318935908236666</v>
       </c>
       <c r="T34" s="1"/>
     </row>
@@ -4561,6 +6985,10 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>0</v>
       </c>
+      <c r="J35" s="33">
+        <f>I35/I9</f>
+        <v>0</v>
+      </c>
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -4583,6 +7011,10 @@
         <f>SUMIF(B:B, "Ristoranti",E:E)</f>
         <v>63.5</v>
       </c>
+      <c r="J36" s="33">
+        <f>I36/I9</f>
+        <v>5.1438662432765209E-2</v>
+      </c>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -4603,7 +7035,11 @@
       </c>
       <c r="I37" s="9">
         <f>SUMIF(B:B, "Bar",E:E)</f>
-        <v>31.4</v>
+        <v>36.4</v>
+      </c>
+      <c r="J37" s="33">
+        <f>I37/I9</f>
+        <v>2.9486099410278011E-2</v>
       </c>
       <c r="T37" s="1"/>
     </row>
@@ -4627,9 +7063,25 @@
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>247.71</v>
       </c>
+      <c r="J38" s="33">
+        <f>I38/I9</f>
+        <v>0.20065938694835073</v>
+      </c>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5.39</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>74</v>
       </c>
@@ -4637,21 +7089,74 @@
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>0</v>
       </c>
+      <c r="J39" s="33">
+        <f>I39/I9</f>
+        <v>0</v>
+      </c>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
       <c r="I40" s="23"/>
+      <c r="J40" s="33"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="6">
+        <v>6</v>
+      </c>
       <c r="I41" s="23"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="6">
+        <v>71.58</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6">
+        <v>9.66</v>
+      </c>
       <c r="I43" s="23"/>
       <c r="T43" s="1"/>
     </row>
@@ -4718,5 +7223,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Contabilita_2024.xlsx
+++ b/Contabilita_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.lazzaro\OneDrive - CUSTOM SPA\Desktop\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://customgroupspa-my.sharepoint.com/personal/s_lazzaro_custom_it/Documents/Desktop/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC4D85-850E-4258-B04B-49572BDB1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6FCC4D85-850E-4258-B04B-49572BDB1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90863371-40BB-4FE5-8A5B-68E63CF0E0C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,14 +602,14 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -783,17 +783,21 @@
                 </a:outerShdw>
               </a:effectLst>
               <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
+                <a:camera prst="orthographicFront"/>
                 <a:lightRig rig="threePt" dir="t">
                   <a:rot lat="0" lon="0" rev="1200000"/>
                 </a:lightRig>
               </a:scene3d>
               <a:sp3d>
                 <a:bevelT w="63500" h="25400"/>
+                <a:bevelB h="0"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52F0-4440-959F-A3D00DEC245B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -844,6 +848,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52F0-4440-959F-A3D00DEC245B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -894,6 +903,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-52F0-4440-959F-A3D00DEC245B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -944,6 +958,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-52F0-4440-959F-A3D00DEC245B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -994,6 +1013,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-52F0-4440-959F-A3D00DEC245B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1024,12 +1048,12 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1103,7 +1127,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1359,6 +1383,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1409,6 +1438,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1459,6 +1493,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1509,6 +1548,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1559,6 +1603,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1609,6 +1658,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1662,8 +1716,46 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A283-48D2-BBA7-D86115817C29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{159F215B-2345-435E-A6BF-1D7B9D5E7E96}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALORE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A283-48D2-BBA7-D86115817C29}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1692,7 +1784,7 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1783,7 +1875,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2972,10 +3064,10 @@
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3629,28 +3721,28 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="S11" s="32" t="s">
+      <c r="P11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="S11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="V11" s="32" t="s">
+      <c r="T11" s="33"/>
+      <c r="V11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="32"/>
+      <c r="W11" s="33"/>
     </row>
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -4832,8 +4924,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5145,28 +5237,28 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="S10" s="32" t="s">
+      <c r="P10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="S10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="V10" s="32" t="s">
+      <c r="T10" s="33"/>
+      <c r="V10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="33"/>
     </row>
     <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -5774,7 +5866,7 @@
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
         <v>170.77</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="31">
         <f>I34/J9</f>
         <v>0.19649740527230267</v>
       </c>
@@ -5800,7 +5892,7 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa",E:E)</f>
         <v>105.04</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="31">
         <f>I35/J9</f>
         <v>0.12086483252212139</v>
       </c>
@@ -5826,7 +5918,7 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>39.049999999999997</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="31">
         <f>I36/J9</f>
         <v>4.4933089394410125E-2</v>
       </c>
@@ -5852,8 +5944,8 @@
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="33">
-        <f>I37/J9</f>
+      <c r="J37" s="31">
+        <f>IF(I37/J9 = 0, 0, I37/J9)</f>
         <v>0</v>
       </c>
       <c r="T37" s="1"/>
@@ -5878,7 +5970,7 @@
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>75.8</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="31">
         <f>I38/J9</f>
         <v>8.7219671602977916E-2</v>
       </c>
@@ -5898,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="23"/>
-      <c r="J39" s="33"/>
+      <c r="J39" s="31"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -5915,7 +6007,7 @@
         <v>10.86</v>
       </c>
       <c r="I40" s="23"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="31"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -6048,8 +6140,8 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J33:J39"/>
+    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6346,28 +6438,28 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="S10" s="32" t="s">
+      <c r="P10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="S10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="V10" s="32" t="s">
+      <c r="T10" s="33"/>
+      <c r="V10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="33"/>
     </row>
     <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -6933,7 +7025,7 @@
         <f xml:space="preserve"> SUMIF(B:B, "Diesel golf",E:E)</f>
         <v>71.58</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="31">
         <f>I33/I9</f>
         <v>5.7983928455706046E-2</v>
       </c>
@@ -6959,7 +7051,7 @@
         <f>SUMIF(B:B, "Spesa",E:E)</f>
         <v>139.72999999999999</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="31">
         <f>I34/I9</f>
         <v>0.11318935908236666</v>
       </c>
@@ -6985,7 +7077,7 @@
         <f xml:space="preserve"> SUMIF(B:B, "Spesa carne",E:E)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="31">
         <f>I35/I9</f>
         <v>0</v>
       </c>
@@ -7011,7 +7103,7 @@
         <f>SUMIF(B:B, "Ristoranti",E:E)</f>
         <v>63.5</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="31">
         <f>I36/I9</f>
         <v>5.1438662432765209E-2</v>
       </c>
@@ -7037,7 +7129,7 @@
         <f>SUMIF(B:B, "Bar",E:E)</f>
         <v>36.4</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="31">
         <f>I37/I9</f>
         <v>2.9486099410278011E-2</v>
       </c>
@@ -7063,7 +7155,7 @@
         <f>SUMIF(B:B, "Bolletta gas",E:E)</f>
         <v>247.71</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="31">
         <f>I38/I9</f>
         <v>0.20065938694835073</v>
       </c>
@@ -7089,7 +7181,7 @@
         <f>SUMIF(B:B, "Bolletta luce",E:E)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="31">
         <f>I39/I9</f>
         <v>0</v>
       </c>
@@ -7109,7 +7201,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="23"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="31"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
